--- a/OrbisGame/Container/Data/Profiles.xlsx
+++ b/OrbisGame/Container/Data/Profiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685816A4-6DF6-410B-94D1-197D00B27096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8F7E1-0649-459E-A1FC-053FD498A329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1902,9 +1902,9 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75">
+    <row r="36" spans="1:2" ht="12.7">
       <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75">
+    <row r="37" spans="1:2" ht="12.7">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75">
+    <row r="38" spans="1:2" ht="12.7">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75">
+    <row r="39" spans="1:2" ht="12.7">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75">
+    <row r="40" spans="1:2" ht="12.7">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75">
+    <row r="41" spans="1:2" ht="12.7">
       <c r="A41" s="3" t="s">
         <v>260</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75">
+    <row r="42" spans="1:2" ht="12.7">
       <c r="A42" s="3" t="s">
         <v>262</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75">
+    <row r="43" spans="1:2" ht="12.7">
       <c r="A43" s="3" t="s">
         <v>263</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75">
+    <row r="44" spans="1:2" ht="12.7">
       <c r="A44" s="3" t="s">
         <v>279</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75">
+    <row r="45" spans="1:2" ht="12.7">
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75">
+    <row r="46" spans="1:2" ht="12.7">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -2413,9 +2413,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -3196,7 +3196,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -4023,7 +4023,7 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -4866,7 +4866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -5691,7 +5691,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -6532,7 +6532,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -7353,7 +7353,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -8178,7 +8178,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -9016,12 +9016,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="12.7"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -9746,7 +9746,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="14.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9802,13 +9802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="14.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -10596,9 +10596,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -11431,12 +11431,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="6" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -12143,7 +12143,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -12159,7 +12159,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -12175,7 +12175,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -12208,10 +12208,10 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
@@ -12291,7 +12291,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>96</v>
@@ -13037,11 +13037,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -13118,7 +13118,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>96</v>
@@ -13864,7 +13864,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -14700,11 +14700,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -15527,7 +15527,7 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -16352,7 +16352,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5"/>
@@ -17170,9 +17170,9 @@
       <selection activeCell="F13" sqref="F13:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -17996,7 +17996,7 @@
       <selection activeCell="F17" sqref="F17:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -18818,7 +18818,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -19637,7 +19637,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -20388,7 +20388,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -21211,7 +21211,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -22034,7 +22034,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -22859,7 +22859,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -23683,9 +23683,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -23741,7 +23741,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -23824,7 +23824,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -23852,7 +23852,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -23880,7 +23880,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -23908,7 +23908,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -24045,7 +24045,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -24099,7 +24099,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -24153,7 +24153,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -24179,7 +24179,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -24228,7 +24228,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -24305,7 +24305,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -24357,7 +24357,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -24379,7 +24379,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -24397,7 +24397,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -24413,7 +24413,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -24428,7 +24428,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="14.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -24439,7 +24439,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="13">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -24470,7 +24470,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -25295,7 +25295,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -26118,7 +26118,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -26963,7 +26963,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -27790,7 +27790,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -28612,12 +28612,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <cols>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -28728,7 +28728,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -28756,7 +28756,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -28784,7 +28784,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -28812,7 +28812,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -28840,7 +28840,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -28868,7 +28868,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -28923,7 +28923,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -28950,7 +28950,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -28977,7 +28977,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -29031,7 +29031,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -29057,7 +29057,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -29083,7 +29083,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -29160,7 +29160,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -29189,7 +29189,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -29216,7 +29216,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -29244,7 +29244,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -29272,7 +29272,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -29300,7 +29300,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -29324,7 +29324,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -29340,7 +29340,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -29356,7 +29356,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -29392,7 +29392,7 @@
       <selection activeCell="F17" sqref="F17:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -30218,7 +30218,7 @@
       <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -31042,7 +31042,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -31865,7 +31865,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -32688,7 +32688,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -33511,7 +33511,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -34334,7 +34334,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -35158,7 +35158,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -35981,7 +35981,7 @@
       <selection activeCell="F28" sqref="F17:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -36805,7 +36805,7 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -37627,9 +37627,9 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -37658,7 +37658,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -37685,7 +37685,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -37712,7 +37712,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -37740,7 +37740,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -37768,7 +37768,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -37796,7 +37796,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -37824,7 +37824,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -37852,7 +37852,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -37880,7 +37880,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -37908,7 +37908,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -37935,7 +37935,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -37962,7 +37962,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -37989,7 +37989,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -38016,7 +38016,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -38043,7 +38043,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -38069,7 +38069,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -38095,7 +38095,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -38121,7 +38121,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -38147,7 +38147,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -38172,7 +38172,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -38201,7 +38201,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -38228,7 +38228,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -38256,7 +38256,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -38284,7 +38284,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -38336,7 +38336,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -38352,7 +38352,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -38368,7 +38368,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -38404,7 +38404,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -39226,7 +39226,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -40051,7 +40051,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -40874,7 +40874,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -41691,9 +41691,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -42516,7 +42516,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -43329,7 +43329,7 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -44167,7 +44167,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -45004,7 +45004,7 @@
       <selection activeCell="F13" sqref="F13:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -45827,7 +45827,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -46649,9 +46649,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -46680,7 +46680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -46707,7 +46707,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -46734,7 +46734,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -46762,7 +46762,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -46790,7 +46790,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -46818,7 +46818,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -46846,7 +46846,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -46874,7 +46874,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -46902,7 +46902,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -46930,7 +46930,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -46957,7 +46957,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -46984,7 +46984,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -47011,7 +47011,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -47038,7 +47038,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -47065,7 +47065,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -47091,7 +47091,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -47117,7 +47117,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -47143,7 +47143,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -47169,7 +47169,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -47194,7 +47194,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -47223,7 +47223,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -47250,7 +47250,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -47278,7 +47278,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -47306,7 +47306,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -47334,7 +47334,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -47358,7 +47358,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -47374,7 +47374,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -47390,7 +47390,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -47426,7 +47426,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -48251,7 +48251,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -49076,7 +49076,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -49801,7 +49801,7 @@
       <selection activeCell="F13" sqref="F13:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -50527,12 +50527,12 @@
       <selection activeCell="F13" sqref="F13:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <cols>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -50561,7 +50561,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -50587,7 +50587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -50613,7 +50613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -50640,7 +50640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -50667,7 +50667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -50694,7 +50694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -50721,7 +50721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -50748,7 +50748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -50775,7 +50775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -50802,7 +50802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -50828,7 +50828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -50854,7 +50854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -50906,7 +50906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -50930,7 +50930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -50957,7 +50957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -51007,7 +51007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -51032,7 +51032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -51054,7 +51054,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -51079,7 +51079,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -51103,7 +51103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -51128,7 +51128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -51153,7 +51153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -51178,7 +51178,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -51199,7 +51199,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -51214,7 +51214,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -51229,7 +51229,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -51264,7 +51264,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -51998,7 +51998,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -52736,7 +52736,7 @@
       <selection activeCell="F13" sqref="F13:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -53470,7 +53470,7 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -54204,7 +54204,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -54937,9 +54937,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -54968,7 +54968,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -55022,7 +55022,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -55050,7 +55050,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -55078,7 +55078,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -55106,7 +55106,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -55134,7 +55134,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -55162,7 +55162,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -55190,7 +55190,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -55218,7 +55218,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -55245,7 +55245,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -55272,7 +55272,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -55299,7 +55299,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -55326,7 +55326,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -55353,7 +55353,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -55379,7 +55379,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -55407,7 +55407,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -55435,7 +55435,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -55463,7 +55463,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -55488,7 +55488,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -55544,7 +55544,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -55600,7 +55600,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -55628,7 +55628,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -55652,7 +55652,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -55668,7 +55668,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -55684,7 +55684,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -55720,7 +55720,7 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -56442,7 +56442,7 @@
       <selection activeCell="F16" sqref="F16:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -57264,14 +57264,14 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="15"/>
-    <col min="5" max="5" width="15.42578125" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="4" width="8.703125" style="15"/>
+    <col min="5" max="5" width="15.41015625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -57300,7 +57300,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -57327,7 +57327,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -57354,7 +57354,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -57382,7 +57382,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -57438,7 +57438,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -57466,7 +57466,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -57494,7 +57494,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -57522,7 +57522,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -57550,7 +57550,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -57577,7 +57577,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -57604,7 +57604,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -57631,7 +57631,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -57658,7 +57658,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -57685,7 +57685,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -57711,7 +57711,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -57737,7 +57737,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -57763,7 +57763,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -57789,7 +57789,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -57812,7 +57812,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -57837,7 +57837,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -57862,7 +57862,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -57888,7 +57888,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -57914,7 +57914,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -57940,7 +57940,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -57962,7 +57962,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -57979,7 +57979,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -57995,7 +57995,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -58028,15 +58028,15 @@
       <selection activeCell="F27" sqref="F17:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="5" width="8.7109375" style="15"/>
-    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="5" width="8.703125" style="15"/>
+    <col min="6" max="6" width="12.87890625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.703125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -58065,7 +58065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -58119,7 +58119,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -58147,7 +58147,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -58175,7 +58175,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -58203,7 +58203,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -58231,7 +58231,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -58259,7 +58259,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -58287,7 +58287,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -58315,7 +58315,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -58342,7 +58342,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -58369,7 +58369,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -58396,7 +58396,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -58423,7 +58423,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -58450,7 +58450,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -58478,7 +58478,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -58504,7 +58504,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -58556,7 +58556,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -58579,7 +58579,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -58604,7 +58604,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -58629,7 +58629,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -58655,7 +58655,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -58681,7 +58681,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -58707,7 +58707,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -58729,7 +58729,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -58746,7 +58746,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -58762,7 +58762,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -58795,12 +58795,12 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -58829,7 +58829,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -58856,7 +58856,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -58883,7 +58883,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -58911,7 +58911,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -58939,7 +58939,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -58967,7 +58967,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -58995,7 +58995,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -59023,7 +59023,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -59051,7 +59051,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -59079,7 +59079,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -59106,7 +59106,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -59133,7 +59133,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -59160,7 +59160,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -59185,7 +59185,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -59210,7 +59210,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -59236,7 +59236,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -59262,7 +59262,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -59288,7 +59288,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -59314,7 +59314,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -59337,7 +59337,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -59362,7 +59362,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -59414,7 +59414,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -59440,7 +59440,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -59466,7 +59466,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -59488,7 +59488,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -59505,7 +59505,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -59521,7 +59521,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -59554,12 +59554,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -59588,7 +59588,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -59615,7 +59615,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -59642,7 +59642,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -59670,7 +59670,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -59698,7 +59698,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -59726,7 +59726,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -59754,7 +59754,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -59782,7 +59782,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -59810,7 +59810,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -59838,7 +59838,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -59865,7 +59865,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -59919,7 +59919,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -59946,7 +59946,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -59973,7 +59973,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -60001,7 +60001,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -60027,7 +60027,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -60053,7 +60053,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -60079,7 +60079,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -60102,7 +60102,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -60127,7 +60127,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -60152,7 +60152,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -60178,7 +60178,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -60204,7 +60204,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -60230,7 +60230,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -60252,7 +60252,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -60269,7 +60269,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -60285,7 +60285,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -60318,12 +60318,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -60352,7 +60352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -60379,7 +60379,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -60406,7 +60406,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -60434,7 +60434,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -60462,7 +60462,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -60490,7 +60490,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -60518,7 +60518,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -60546,7 +60546,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -60574,7 +60574,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -60602,7 +60602,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -60629,7 +60629,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -60656,7 +60656,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -60683,7 +60683,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -60708,7 +60708,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -60733,7 +60733,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -60759,7 +60759,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -60785,7 +60785,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -60811,7 +60811,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -60837,7 +60837,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -60860,7 +60860,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -60886,7 +60886,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -60911,7 +60911,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -60937,7 +60937,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -60963,7 +60963,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -60989,7 +60989,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -61011,7 +61011,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -61028,7 +61028,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -61044,7 +61044,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -61077,12 +61077,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -61111,7 +61111,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -61138,7 +61138,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -61165,7 +61165,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -61193,7 +61193,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -61221,7 +61221,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -61249,7 +61249,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -61277,7 +61277,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -61305,7 +61305,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -61333,7 +61333,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -61361,7 +61361,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -61388,7 +61388,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -61415,7 +61415,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -61442,7 +61442,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -61469,7 +61469,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -61496,7 +61496,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -61522,7 +61522,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -61550,7 +61550,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -61578,7 +61578,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -61606,7 +61606,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -61631,7 +61631,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -61658,7 +61658,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -61685,7 +61685,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -61713,7 +61713,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -61741,7 +61741,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -61769,7 +61769,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -61793,7 +61793,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -61810,7 +61810,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -61826,7 +61826,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -61859,12 +61859,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -61893,7 +61893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -61920,7 +61920,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -61947,7 +61947,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -61975,7 +61975,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -62003,7 +62003,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -62031,7 +62031,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -62059,7 +62059,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -62087,7 +62087,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -62143,7 +62143,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -62170,7 +62170,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -62197,7 +62197,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -62224,7 +62224,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -62251,7 +62251,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -62278,7 +62278,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -62306,7 +62306,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -62334,7 +62334,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -62362,7 +62362,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -62390,7 +62390,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -62415,7 +62415,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -62442,7 +62442,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -62469,7 +62469,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -62497,7 +62497,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -62525,7 +62525,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -62553,7 +62553,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -62577,7 +62577,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -62594,7 +62594,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -62610,7 +62610,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -62643,12 +62643,12 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -62677,7 +62677,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -62704,7 +62704,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -62731,7 +62731,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -62759,7 +62759,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -62787,7 +62787,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -62815,7 +62815,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -62843,7 +62843,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -62871,7 +62871,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -62899,7 +62899,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -62927,7 +62927,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -62954,7 +62954,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -62981,7 +62981,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -63008,7 +63008,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -63035,7 +63035,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -63062,7 +63062,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -63090,7 +63090,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -63118,7 +63118,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -63146,7 +63146,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -63174,7 +63174,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -63199,7 +63199,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -63226,7 +63226,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -63253,7 +63253,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -63281,7 +63281,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -63309,7 +63309,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -63337,7 +63337,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -63361,7 +63361,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -63378,7 +63378,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -63394,7 +63394,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -63427,9 +63427,9 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -63458,7 +63458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -63485,7 +63485,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -63512,7 +63512,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -63540,7 +63540,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -63568,7 +63568,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -63596,7 +63596,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -63624,7 +63624,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -63652,7 +63652,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -63680,7 +63680,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -63735,7 +63735,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -63762,7 +63762,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -63789,7 +63789,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -63816,7 +63816,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -63843,7 +63843,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -63869,7 +63869,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -63897,7 +63897,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -63925,7 +63925,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -63953,7 +63953,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -63978,7 +63978,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -64007,7 +64007,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -64034,7 +64034,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -64062,7 +64062,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -64090,7 +64090,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -64118,7 +64118,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -64142,7 +64142,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -64158,7 +64158,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -64174,7 +64174,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -64207,19 +64207,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15"/>
-    <col min="2" max="2" width="17.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="15"/>
-    <col min="4" max="4" width="16.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="15"/>
-    <col min="6" max="6" width="20.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="1" width="8.703125" style="15"/>
+    <col min="2" max="2" width="17.29296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.703125" style="15"/>
+    <col min="4" max="4" width="16.29296875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" style="15"/>
+    <col min="6" max="6" width="20.703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.703125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -64248,7 +64248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -64302,7 +64302,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -64330,7 +64330,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -64358,7 +64358,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -64386,7 +64386,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -64414,7 +64414,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -64442,7 +64442,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -64470,7 +64470,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -64498,7 +64498,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -64525,7 +64525,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -64552,7 +64552,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -64579,7 +64579,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -64606,7 +64606,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -64631,7 +64631,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -64659,7 +64659,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -64685,7 +64685,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -64711,7 +64711,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -64737,7 +64737,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -64760,7 +64760,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -64785,7 +64785,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -64810,7 +64810,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -64836,7 +64836,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -64862,7 +64862,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -64888,7 +64888,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -64910,7 +64910,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -64927,7 +64927,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -64943,7 +64943,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -64976,12 +64976,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -65010,7 +65010,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -65037,7 +65037,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -65064,7 +65064,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -65092,7 +65092,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -65120,7 +65120,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -65176,7 +65176,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -65204,7 +65204,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -65232,7 +65232,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -65260,7 +65260,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -65287,7 +65287,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -65314,7 +65314,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -65341,7 +65341,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -65368,7 +65368,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -65395,7 +65395,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -65423,7 +65423,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -65449,7 +65449,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -65475,7 +65475,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -65501,7 +65501,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -65524,7 +65524,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -65549,7 +65549,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -65574,7 +65574,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -65626,7 +65626,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -65674,7 +65674,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -65691,7 +65691,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -65707,7 +65707,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -65740,14 +65740,14 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="13.7"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="15"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="4" width="8.703125" style="15"/>
+    <col min="5" max="5" width="16.29296875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -65776,7 +65776,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -65803,7 +65803,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -65830,7 +65830,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -65858,7 +65858,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -65886,7 +65886,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -65914,7 +65914,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -65942,7 +65942,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -65970,7 +65970,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -65998,7 +65998,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -66026,7 +66026,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -66053,7 +66053,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -66080,7 +66080,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -66107,7 +66107,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -66134,7 +66134,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -66159,7 +66159,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -66185,7 +66185,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -66213,7 +66213,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -66241,7 +66241,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -66269,7 +66269,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -66296,7 +66296,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -66323,7 +66323,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -66350,7 +66350,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -66378,7 +66378,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -66406,7 +66406,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -66434,7 +66434,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -66458,7 +66458,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -66475,7 +66475,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -66491,7 +66491,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -66524,9 +66524,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.703125" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -66552,7 +66552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -66578,7 +66578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -66604,7 +66604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -66630,7 +66630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -66656,7 +66656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -66682,7 +66682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -66708,7 +66708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -66734,7 +66734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -66760,7 +66760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -66786,7 +66786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -66812,7 +66812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -66838,7 +66838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -66864,7 +66864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -66890,7 +66890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -66916,7 +66916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -66940,7 +66940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -66966,7 +66966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -66992,7 +66992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -67018,7 +67018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -67042,7 +67042,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -67094,7 +67094,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -67120,7 +67120,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -67146,7 +67146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -67172,7 +67172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -67194,7 +67194,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -67210,7 +67210,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -67224,7 +67224,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -67256,9 +67256,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -67287,7 +67287,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -67313,7 +67313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -67339,7 +67339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -67366,7 +67366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -67393,7 +67393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -67420,7 +67420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -67447,7 +67447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -67474,7 +67474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -67501,7 +67501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -67528,7 +67528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -67554,7 +67554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -67580,7 +67580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -67606,7 +67606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -67630,7 +67630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -67654,7 +67654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -67679,7 +67679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -67706,7 +67706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -67731,7 +67731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -67758,7 +67758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -67784,7 +67784,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -67810,7 +67810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -67836,7 +67836,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -67863,7 +67863,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -67890,7 +67890,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -67917,7 +67917,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -67940,7 +67940,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -67955,7 +67955,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -67970,7 +67970,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -68002,9 +68002,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -68030,7 +68030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -68056,7 +68056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -68082,7 +68082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -68109,7 +68109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -68136,7 +68136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -68163,7 +68163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -68190,7 +68190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -68217,7 +68217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -68244,7 +68244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -68271,7 +68271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -68297,7 +68297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -68323,7 +68323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -68349,7 +68349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -68375,7 +68375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -68399,7 +68399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -68426,7 +68426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -68453,7 +68453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -68480,7 +68480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -68507,7 +68507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -68533,7 +68533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -68559,7 +68559,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -68585,7 +68585,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -68612,7 +68612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -68639,7 +68639,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -68666,7 +68666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -68689,7 +68689,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -68706,7 +68706,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -68721,7 +68721,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -68753,9 +68753,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -68784,7 +68784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -68810,7 +68810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -68836,7 +68836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -68863,7 +68863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -68890,7 +68890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -68917,7 +68917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -68944,7 +68944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -68971,7 +68971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -68998,7 +68998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -69025,7 +69025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -69051,7 +69051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -69077,7 +69077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -69103,7 +69103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -69129,7 +69129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -69155,7 +69155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -69180,7 +69180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -69207,7 +69207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -69234,7 +69234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -69261,7 +69261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -69285,7 +69285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -69312,7 +69312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -69338,7 +69338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -69365,7 +69365,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -69392,7 +69392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -69419,7 +69419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -69442,7 +69442,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -69459,7 +69459,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -69474,7 +69474,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -69506,9 +69506,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -69537,7 +69537,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -69564,7 +69564,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -69591,7 +69591,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -69619,7 +69619,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -69647,7 +69647,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -69675,7 +69675,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -69703,7 +69703,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -69731,7 +69731,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -69759,7 +69759,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -69787,7 +69787,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -69814,7 +69814,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -69841,7 +69841,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -69868,7 +69868,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -69895,7 +69895,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -69922,7 +69922,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -69948,7 +69948,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -69976,7 +69976,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -70004,7 +70004,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -70032,7 +70032,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -70057,7 +70057,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -70085,7 +70085,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -70112,7 +70112,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -70140,7 +70140,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -70168,7 +70168,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -70196,7 +70196,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -70220,7 +70220,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -70238,7 +70238,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -70254,7 +70254,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -70287,9 +70287,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -70318,7 +70318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -70344,7 +70344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -70370,7 +70370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -70397,7 +70397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -70424,7 +70424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -70451,7 +70451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -70478,7 +70478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -70505,7 +70505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -70532,7 +70532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -70559,7 +70559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -70585,7 +70585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -70611,7 +70611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -70637,7 +70637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -70661,7 +70661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -70685,7 +70685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -70710,7 +70710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -70737,7 +70737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -70764,7 +70764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -70791,7 +70791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -70815,7 +70815,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -70841,7 +70841,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -70867,7 +70867,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -70894,7 +70894,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -70921,7 +70921,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -70971,7 +70971,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -70986,7 +70986,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -71001,7 +71001,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -71033,9 +71033,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -71064,7 +71064,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -71091,7 +71091,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -71118,7 +71118,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -71146,7 +71146,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -71174,7 +71174,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -71202,7 +71202,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -71230,7 +71230,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -71258,7 +71258,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -71286,7 +71286,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -71314,7 +71314,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -71341,7 +71341,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -71368,7 +71368,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -71395,7 +71395,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -71422,7 +71422,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -71449,7 +71449,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -71477,7 +71477,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -71505,7 +71505,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -71533,7 +71533,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -71561,7 +71561,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -71586,7 +71586,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -71614,7 +71614,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -71641,7 +71641,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -71669,7 +71669,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -71697,7 +71697,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -71725,7 +71725,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -71749,7 +71749,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -71767,7 +71767,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -71783,7 +71783,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -71816,9 +71816,9 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -71847,7 +71847,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -71874,7 +71874,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -71901,7 +71901,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -71929,7 +71929,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -71957,7 +71957,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -71985,7 +71985,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -72013,7 +72013,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -72041,7 +72041,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -72069,7 +72069,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -72097,7 +72097,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -72124,7 +72124,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -72151,7 +72151,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -72178,7 +72178,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -72205,7 +72205,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -72232,7 +72232,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -72260,7 +72260,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -72286,7 +72286,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -72312,7 +72312,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -72338,7 +72338,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -72361,7 +72361,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -72387,7 +72387,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -72412,7 +72412,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -72438,7 +72438,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -72464,7 +72464,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -72490,7 +72490,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -72512,7 +72512,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -72528,7 +72528,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -72544,7 +72544,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -72577,9 +72577,9 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.35">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -72608,7 +72608,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.35">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -72634,7 +72634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.35">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -72660,7 +72660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -72687,7 +72687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.35">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -72714,7 +72714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.35">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -72741,7 +72741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.35">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -72768,7 +72768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="14.35">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -72795,7 +72795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.35">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -72822,7 +72822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.35">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -72849,7 +72849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.35">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -72875,7 +72875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.35">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -72901,7 +72901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.35">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -72927,7 +72927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.35">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -72951,7 +72951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.35">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -72975,7 +72975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.35">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -73000,7 +73000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.35">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -73027,7 +73027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.35">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -73054,7 +73054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.35">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -73081,7 +73081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.35">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -73107,7 +73107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -73133,7 +73133,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.35">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -73159,7 +73159,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.35">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -73186,7 +73186,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.35">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -73213,7 +73213,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="14.35">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -73240,7 +73240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.35">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -73263,7 +73263,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.35">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -73278,7 +73278,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.35">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -73293,7 +73293,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.35">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -73328,7 +73328,7 @@
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -74172,7 +74172,7 @@
       <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -75000,7 +75000,7 @@
       <selection activeCell="C12" sqref="C12:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -75846,7 +75846,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.29296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">

--- a/OrbisGame/Container/Data/Profiles.xlsx
+++ b/OrbisGame/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1997C0A9-F02F-44D8-995A-C011D998B0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A31B8-0233-4811-9530-D34D041C9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="85" activeTab="90" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12058" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12059" uniqueCount="421">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -887,9 +887,6 @@
     <t>Animalus Ziegenbock</t>
   </si>
   <si>
-    <t>Kleinschild</t>
-  </si>
-  <si>
     <t>Hellebarde</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
     <t>Streitkolben, Schwert,Axt</t>
   </si>
   <si>
-    <t>LeichterSchild,Schild, Faust</t>
-  </si>
-  <si>
     <t>Hellebarde, Großschwert,Großaxt, Schwert,Axt</t>
   </si>
   <si>
@@ -1364,12 +1358,6 @@
     <t>Schild, LeichterSchild</t>
   </si>
   <si>
-    <t>Faust,LeichterSchild,Schild</t>
-  </si>
-  <si>
-    <t>Reitspinne</t>
-  </si>
-  <si>
     <t>Schwert,Axt,Knüppel,Streitkolben,Speer</t>
   </si>
   <si>
@@ -1380,6 +1368,33 @@
   </si>
   <si>
     <t>Geron Arnes</t>
+  </si>
+  <si>
+    <t>Hraggstahl</t>
+  </si>
+  <si>
+    <t>Reitspinne mittel</t>
+  </si>
+  <si>
+    <t>Reitspinne groß</t>
+  </si>
+  <si>
+    <t>Faust,Leichter Schild,Schild</t>
+  </si>
+  <si>
+    <t>Leichter Schild,Schild, Faust</t>
+  </si>
+  <si>
+    <t>Reitspinne klein</t>
+  </si>
+  <si>
+    <t>Armbrust,Bogen, Faust,Faust</t>
+  </si>
+  <si>
+    <t>Dolch, Axt,Faust</t>
+  </si>
+  <si>
+    <t>Schwert,Axt,Knüppel,Streitkolben, Speer,Faust,Faust</t>
   </si>
 </sst>
 </file>
@@ -2240,34 +2255,34 @@
     </row>
     <row r="41" spans="1:2" ht="13.2">
       <c r="A41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.2">
       <c r="A42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.2">
       <c r="A43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.2">
       <c r="A44" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.2">
@@ -2748,7 +2763,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -2784,7 +2799,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -2811,7 +2826,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -2979,7 +2994,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -3008,7 +3023,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -3035,7 +3050,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -3063,7 +3078,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -3091,7 +3106,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -3116,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>228</v>
@@ -3542,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -3579,7 +3594,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -3607,7 +3622,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -3635,7 +3650,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -3664,7 +3679,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -3775,7 +3790,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3802,7 +3817,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3828,7 +3843,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3855,7 +3870,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -3882,7 +3897,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -3906,7 +3921,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>241</v>
@@ -4369,7 +4384,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -4749,10 +4764,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -5214,7 +5229,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -5251,7 +5266,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -5279,7 +5294,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -5576,10 +5591,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -6039,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -6417,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -6880,7 +6895,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -6917,7 +6932,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -6945,7 +6960,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -7240,7 +7255,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>79</v>
@@ -7701,7 +7716,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -7823,7 +7838,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -7934,7 +7949,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -7961,7 +7976,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -7987,7 +8002,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -8014,7 +8029,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -8041,7 +8056,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -8065,7 +8080,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>77</v>
@@ -8526,7 +8541,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -8904,10 +8919,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -9356,7 +9371,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -9720,10 +9735,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -10143,7 +10158,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -10507,10 +10522,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -10947,7 +10962,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>29</v>
@@ -10984,7 +10999,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -11012,7 +11027,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -11067,7 +11082,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -11178,7 +11193,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -11235,7 +11250,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -11264,7 +11279,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -11319,10 +11334,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -11771,7 +11786,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -12133,10 +12148,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -12562,7 +12577,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -12599,7 +12614,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -12627,7 +12642,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -12684,7 +12699,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -12795,7 +12810,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -12822,7 +12837,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -12848,7 +12863,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -12875,7 +12890,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -12902,7 +12917,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -12926,7 +12941,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -13389,7 +13404,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -13426,7 +13441,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -13618,7 +13633,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -13645,7 +13660,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -13671,7 +13686,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -13698,7 +13713,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -13727,7 +13742,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -13751,7 +13766,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>73</v>
@@ -14212,7 +14227,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>26</v>
@@ -14249,7 +14264,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -14589,10 +14604,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -15052,7 +15067,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -15089,7 +15104,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -15117,7 +15132,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -15283,7 +15298,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -15310,7 +15325,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -15336,7 +15351,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -15363,7 +15378,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -15390,7 +15405,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -15414,10 +15429,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -15875,7 +15890,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>24</v>
@@ -15912,7 +15927,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -15940,7 +15955,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -15968,7 +15983,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -15997,7 +16012,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -16108,7 +16123,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -16135,7 +16150,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -16161,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -16188,7 +16203,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -16215,7 +16230,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -16239,7 +16254,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>69</v>
@@ -16698,7 +16713,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -16735,7 +16750,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -17056,7 +17071,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>67</v>
@@ -17520,7 +17535,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -17557,7 +17572,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -17585,7 +17600,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -17640,7 +17655,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -17751,7 +17766,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -17778,7 +17793,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -17804,7 +17819,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -17831,7 +17846,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -17858,7 +17873,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -17882,7 +17897,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -18343,7 +18358,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -18380,7 +18395,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -18704,7 +18719,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>63</v>
@@ -19165,7 +19180,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>30</v>
@@ -19202,7 +19217,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -19523,7 +19538,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>61</v>
@@ -19963,7 +19978,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -20024,7 +20039,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -20164,7 +20179,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -20312,7 +20327,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -20353,7 +20368,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -20735,7 +20750,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -20772,7 +20787,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -20966,7 +20981,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -20993,7 +21008,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -21019,7 +21034,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -21046,7 +21061,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -21073,7 +21088,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -21097,7 +21112,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>59</v>
@@ -21558,7 +21573,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -21595,7 +21610,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -21623,7 +21638,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -21678,7 +21693,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -21789,7 +21804,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -21816,7 +21831,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -21842,7 +21857,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -21869,7 +21884,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -21896,7 +21911,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -21920,7 +21935,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>57</v>
@@ -22381,7 +22396,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -22418,7 +22433,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -22446,7 +22461,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -22501,7 +22516,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -22743,7 +22758,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>55</v>
@@ -23206,7 +23221,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>17</v>
@@ -23243,7 +23258,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -23299,7 +23314,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -23570,10 +23585,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -24019,7 +24034,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>17</v>
@@ -24055,7 +24070,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -24082,7 +24097,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -24137,7 +24152,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -24370,7 +24385,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>53</v>
@@ -24817,7 +24832,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>17</v>
@@ -24854,7 +24869,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -24882,7 +24897,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -25181,7 +25196,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>53</v>
@@ -25642,7 +25657,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -25679,7 +25694,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -25707,7 +25722,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -25762,7 +25777,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -25873,7 +25888,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -25900,7 +25915,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -25926,7 +25941,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -25953,7 +25968,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -25980,7 +25995,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26004,7 +26019,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>51</v>
@@ -26465,7 +26480,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -26502,7 +26517,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -26530,7 +26545,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -26585,7 +26600,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -26704,7 +26719,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -26733,7 +26748,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -26761,7 +26776,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -26790,7 +26805,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -26819,7 +26834,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -26845,7 +26860,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>224</v>
@@ -27310,7 +27325,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -27347,7 +27362,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -27375,7 +27390,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -27432,7 +27447,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -27543,7 +27558,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -27570,7 +27585,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -27596,7 +27611,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -27623,7 +27638,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -27650,7 +27665,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -27674,7 +27689,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>49</v>
@@ -28137,7 +28152,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -28174,7 +28189,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -28202,7 +28217,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -28259,7 +28274,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -28370,7 +28385,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -28397,7 +28412,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -28423,7 +28438,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -28450,7 +28465,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -28477,7 +28492,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -28501,10 +28516,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -28951,7 +28966,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -28987,7 +29002,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -29014,7 +29029,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -29041,7 +29056,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -29176,7 +29191,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -29205,7 +29220,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -29232,7 +29247,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -29260,7 +29275,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -29288,7 +29303,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -29313,7 +29328,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>238</v>
@@ -29739,7 +29754,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -30104,10 +30119,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -30565,7 +30580,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -30928,7 +30943,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>11</v>
@@ -31389,7 +31404,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>44</v>
@@ -31751,7 +31766,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>9</v>
@@ -32212,7 +32227,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>32</v>
@@ -32249,7 +32264,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -32277,7 +32292,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -32305,7 +32320,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -32443,7 +32458,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -32470,7 +32485,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -32496,7 +32511,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -32523,7 +32538,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -32550,7 +32565,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -32574,7 +32589,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>7</v>
@@ -33035,7 +33050,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -33072,7 +33087,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -33266,7 +33281,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -33293,7 +33308,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -33319,7 +33334,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -33346,7 +33361,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -33373,7 +33388,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -33397,10 +33412,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -33858,7 +33873,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -33895,7 +33910,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -33951,7 +33966,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -34089,7 +34104,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -34116,7 +34131,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -34142,7 +34157,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -34169,7 +34184,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -34196,7 +34211,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -34220,10 +34235,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -34681,7 +34696,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -34718,7 +34733,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -34746,7 +34761,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -34912,7 +34927,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -34939,7 +34954,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -34965,7 +34980,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -34992,7 +35007,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -35019,7 +35034,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -35043,7 +35058,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>220</v>
@@ -35504,7 +35519,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -35541,7 +35556,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -35569,7 +35584,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -35735,7 +35750,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -35762,7 +35777,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -35788,7 +35803,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -35815,7 +35830,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -35842,7 +35857,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -35866,7 +35881,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>3</v>
@@ -36327,7 +36342,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -36364,7 +36379,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -36392,7 +36407,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -36558,7 +36573,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -36585,7 +36600,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -36611,7 +36626,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -36638,7 +36653,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -36665,7 +36680,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -36689,7 +36704,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>45</v>
@@ -37150,7 +37165,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -37187,7 +37202,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -37243,7 +37258,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -37272,7 +37287,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -37383,7 +37398,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -37410,7 +37425,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -37436,7 +37451,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -37463,7 +37478,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -37490,7 +37505,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -37514,7 +37529,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>43</v>
@@ -37961,7 +37976,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>23</v>
@@ -37997,7 +38012,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -38024,7 +38039,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -38186,7 +38201,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -38215,7 +38230,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -38242,7 +38257,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -38270,7 +38285,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -38298,7 +38313,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -38323,7 +38338,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>236</v>
@@ -38749,7 +38764,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -38814,7 +38829,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -38978,7 +38993,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -39005,7 +39020,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -39031,7 +39046,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -39058,7 +39073,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -39085,7 +39100,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -39109,10 +39124,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -39570,7 +39585,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -39607,7 +39622,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -39635,7 +39650,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -39692,7 +39707,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -39803,7 +39818,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -39830,7 +39845,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -39856,7 +39871,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -39883,7 +39898,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -39910,7 +39925,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -39934,7 +39949,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -40395,7 +40410,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -40432,7 +40447,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -40626,7 +40641,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -40653,7 +40668,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -40679,7 +40694,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -40706,7 +40721,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -40733,7 +40748,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -40757,7 +40772,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>39</v>
@@ -41218,7 +41233,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -41574,7 +41589,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>37</v>
@@ -42038,7 +42053,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>44</v>
@@ -42075,7 +42090,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -42103,7 +42118,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -42399,7 +42414,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>35</v>
@@ -42854,7 +42869,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>26</v>
@@ -42891,7 +42906,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -43212,7 +43227,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>15</v>
@@ -43673,7 +43688,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -44048,7 +44063,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>34</v>
@@ -44511,7 +44526,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -44885,7 +44900,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>31</v>
@@ -45348,7 +45363,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -45385,7 +45400,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -45413,7 +45428,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -45441,7 +45456,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -45579,7 +45594,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -45606,7 +45621,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -45632,7 +45647,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -45659,7 +45674,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -45686,7 +45701,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -45710,7 +45725,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>22</v>
@@ -45840,8 +45855,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -46171,7 +46186,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -46208,7 +46223,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -46236,7 +46251,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -46264,7 +46279,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -46293,7 +46308,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -46404,7 +46419,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -46431,7 +46446,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -46457,7 +46472,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -46484,7 +46499,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -46511,7 +46526,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -46535,7 +46550,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>20</v>
@@ -46577,7 +46592,9 @@
       <c r="E27" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
@@ -46982,7 +46999,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -47018,7 +47035,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -47072,7 +47089,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -47207,7 +47224,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -47236,7 +47253,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -47263,7 +47280,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -47291,7 +47308,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -47319,7 +47336,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -47344,7 +47361,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>229</v>
@@ -47770,7 +47787,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -47807,7 +47824,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -47835,7 +47852,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -47863,7 +47880,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>145</v>
@@ -47892,7 +47909,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -48003,7 +48020,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -48030,7 +48047,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -48056,7 +48073,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -48083,7 +48100,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -48110,7 +48127,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -48134,7 +48151,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -48588,7 +48605,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="11">
         <v>100</v>
@@ -48960,7 +48977,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>24</v>
@@ -49399,7 +49416,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -49723,7 +49740,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>25</v>
@@ -50118,7 +50135,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -50153,7 +50170,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -50179,7 +50196,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -50230,7 +50247,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -50454,7 +50471,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>29</v>
@@ -50853,7 +50870,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -50888,7 +50905,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -50914,7 +50931,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -50965,7 +50982,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -51189,7 +51206,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>215</v>
@@ -51587,7 +51604,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -51622,7 +51639,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>135</v>
@@ -51648,7 +51665,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>140</v>
@@ -51699,7 +51716,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>149</v>
@@ -51923,7 +51940,7 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>27</v>
@@ -52321,7 +52338,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -52661,7 +52678,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -53059,7 +53076,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -53094,7 +53111,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -53120,7 +53137,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -53171,7 +53188,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -53274,7 +53291,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -53299,7 +53316,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -53323,7 +53340,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -53348,7 +53365,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -53373,7 +53390,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -53395,7 +53412,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>222</v>
@@ -53793,7 +53810,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -53828,7 +53845,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -53854,7 +53871,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -53905,7 +53922,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -54008,7 +54025,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -54033,7 +54050,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -54057,7 +54074,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -54082,7 +54099,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -54107,7 +54124,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -54129,7 +54146,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>218</v>
@@ -54527,7 +54544,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -54562,7 +54579,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -54588,7 +54605,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -54614,7 +54631,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -54744,7 +54761,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
@@ -54769,7 +54786,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -54793,7 +54810,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -54818,7 +54835,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -54843,7 +54860,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -54865,10 +54882,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
@@ -55270,7 +55287,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -55306,7 +55323,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -55333,7 +55350,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -55501,7 +55518,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -55530,7 +55547,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -55557,7 +55574,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -55585,7 +55602,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -55613,7 +55630,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -55638,7 +55655,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>232</v>
@@ -56037,7 +56054,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
         <v>20</v>
@@ -56367,7 +56384,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>32</v>
@@ -56786,7 +56803,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>30</v>
@@ -56851,7 +56868,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -57003,7 +57020,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -57150,7 +57167,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -57602,7 +57619,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>35</v>
@@ -57638,7 +57655,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -57665,7 +57682,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>140</v>
@@ -57825,7 +57842,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -57850,7 +57867,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -57875,7 +57892,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -57901,7 +57918,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -57927,7 +57944,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -57950,7 +57967,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -58367,7 +58384,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -58403,7 +58420,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -58430,7 +58447,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>140</v>
@@ -58457,7 +58474,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -58485,7 +58502,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -58592,7 +58609,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -58617,7 +58634,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -58642,7 +58659,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -58668,7 +58685,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -58694,7 +58711,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -58717,7 +58734,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>53</v>
@@ -59131,7 +59148,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -59167,7 +59184,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -59476,10 +59493,10 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -59890,7 +59907,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>25</v>
@@ -60235,7 +60252,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>61</v>
@@ -60327,7 +60344,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -60649,7 +60666,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>35</v>
@@ -61015,7 +61032,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -61109,7 +61126,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -61431,7 +61448,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>35</v>
@@ -61521,7 +61538,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -61799,7 +61816,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -61893,7 +61910,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -62215,7 +62232,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>30</v>
@@ -62333,7 +62350,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -62583,7 +62600,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -63006,7 +63023,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -63042,7 +63059,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -63122,7 +63139,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -63229,7 +63246,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -63254,7 +63271,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -63279,7 +63296,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -63305,7 +63322,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -63331,7 +63348,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -63354,10 +63371,10 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -63765,7 +63782,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -63801,7 +63818,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -63828,7 +63845,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -63855,7 +63872,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -63996,7 +64013,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -64025,7 +64042,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -64052,7 +64069,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -64080,7 +64097,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -64108,7 +64125,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -64133,7 +64150,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>226</v>
@@ -64226,7 +64243,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -64548,7 +64565,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -64584,7 +64601,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -64666,7 +64683,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -64773,7 +64790,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -64798,7 +64815,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -64823,7 +64840,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -64849,7 +64866,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -64875,7 +64892,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -64898,10 +64915,10 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -65314,7 +65331,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -65527,7 +65544,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -65680,7 +65697,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -66073,7 +66090,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -66419,7 +66436,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>65</v>
@@ -66815,7 +66832,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>31</v>
@@ -67164,10 +67181,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4">
@@ -67558,7 +67575,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -67913,7 +67930,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -68312,7 +68329,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -68666,7 +68683,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>55</v>
@@ -69075,7 +69092,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -69442,7 +69459,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>55</v>
@@ -69846,7 +69863,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -70195,7 +70212,7 @@
         <v>10.5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>77</v>
@@ -70602,7 +70619,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -70971,7 +70988,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -71375,7 +71392,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -71578,7 +71595,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -71726,7 +71743,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>77</v>
@@ -72133,7 +72150,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>25</v>
@@ -72169,7 +72186,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -72196,7 +72213,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -72223,7 +72240,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -72251,7 +72268,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -72358,7 +72375,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -72384,7 +72401,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -72409,7 +72426,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -72435,7 +72452,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -72461,7 +72478,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -72484,7 +72501,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>234</v>
@@ -72575,7 +72592,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -72897,7 +72914,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -72933,7 +72950,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>135</v>
@@ -72960,7 +72977,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>140</v>
@@ -72987,7 +73004,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -73015,7 +73032,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>149</v>
@@ -73122,7 +73139,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="14"/>
     </row>
@@ -73147,7 +73164,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -73172,7 +73189,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I22" s="14"/>
     </row>
@@ -73198,7 +73215,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I23" s="14"/>
     </row>
@@ -73224,7 +73241,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -73247,7 +73264,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>57</v>
@@ -73338,8 +73355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F082A-4349-4A2F-ABFF-52612BC07FFC}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -73475,7 +73492,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>103</v>
@@ -73667,7 +73684,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="16">
         <v>20</v>
@@ -73876,7 +73893,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -74017,7 +74034,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>57</v>
@@ -74107,7 +74124,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -74165,7 +74182,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -74181,7 +74198,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>95</v>
@@ -74238,7 +74255,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="10">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>103</v>
@@ -74261,7 +74278,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>106</v>
@@ -74353,7 +74370,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="10">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>119</v>
@@ -74436,7 +74453,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>24</v>
@@ -74473,7 +74490,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -74571,7 +74588,7 @@
       </c>
       <c r="B17" s="10">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>155</v>
@@ -74657,7 +74674,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -74817,7 +74834,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>69</v>
@@ -75279,7 +75296,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -75316,7 +75333,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -75344,7 +75361,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -75372,7 +75389,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -75401,7 +75418,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -75512,7 +75529,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -75539,7 +75556,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -75565,7 +75582,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -75592,7 +75609,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -75619,7 +75636,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -75643,10 +75660,10 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -76107,7 +76124,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -76487,7 +76504,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -76932,7 +76949,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -77287,7 +77304,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>75</v>
@@ -77377,8 +77394,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -77708,7 +77725,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -77745,7 +77762,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -77925,7 +77942,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>169</v>
@@ -78072,7 +78089,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -78115,7 +78132,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -78200,7 +78217,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -78530,7 +78547,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -78567,7 +78584,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -78595,7 +78612,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -78623,7 +78640,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -78652,7 +78669,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -78763,7 +78780,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -78790,7 +78807,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -78816,7 +78833,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -78843,7 +78860,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -78870,7 +78887,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -78894,7 +78911,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -78937,7 +78954,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -79022,7 +79039,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -79352,7 +79369,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -79389,7 +79406,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>135</v>
@@ -79417,7 +79434,7 @@
         <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>140</v>
@@ -79445,7 +79462,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>145</v>
@@ -79474,7 +79491,7 @@
         <v>148</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -79585,7 +79602,7 @@
         <v>166</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -79612,7 +79629,7 @@
         <v>171</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -79638,7 +79655,7 @@
         <v>175</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -79665,7 +79682,7 @@
         <v>179</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -79692,7 +79709,7 @@
         <v>183</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -79716,7 +79733,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>18</v>
@@ -79759,7 +79776,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>

--- a/OrbisGame/Container/Data/Profiles.xlsx
+++ b/OrbisGame/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A31B8-0233-4811-9530-D34D041C9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F898A-9FB8-4C29-B0F0-A580B7AD13B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="77" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -36012,7 +36012,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -45856,7 +45856,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -78217,7 +78217,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -78291,7 +78291,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>95</v>
@@ -78348,7 +78348,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>103</v>
@@ -78406,7 +78406,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>111</v>
@@ -79039,7 +79039,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -79113,7 +79113,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>95</v>
@@ -79228,7 +79228,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>111</v>

--- a/OrbisGame/Container/Data/Profiles.xlsx
+++ b/OrbisGame/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE00AAE-619F-4E23-884D-1E67C2B47B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AA4ED-B892-4FE8-8201-3C0BAFA6E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="89" activeTab="96" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="89" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -76632,8 +76632,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -76806,7 +76806,7 @@
         <v>108</v>
       </c>
       <c r="H6" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -76835,7 +76835,7 @@
         <v>112</v>
       </c>
       <c r="H7" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -76864,7 +76864,7 @@
         <v>116</v>
       </c>
       <c r="H8" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -76922,7 +76922,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -76950,7 +76950,7 @@
         <v>128</v>
       </c>
       <c r="H11" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -76978,7 +76978,7 @@
         <v>131</v>
       </c>
       <c r="H12" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -77006,7 +77006,7 @@
         <v>135</v>
       </c>
       <c r="H13" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -77034,7 +77034,7 @@
         <v>140</v>
       </c>
       <c r="H14" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -77062,7 +77062,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -77089,7 +77089,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -77116,7 +77116,7 @@
         <v>153</v>
       </c>
       <c r="H17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -77143,7 +77143,7 @@
         <v>157</v>
       </c>
       <c r="H18" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -77170,7 +77170,7 @@
         <v>161</v>
       </c>
       <c r="H19" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -78276,7 +78276,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/OrbisGame/Container/Data/Profiles.xlsx
+++ b/OrbisGame/Container/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AA4ED-B892-4FE8-8201-3C0BAFA6E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FFA47-0227-4ED3-BF0D-CED5A90BEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="89" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11937" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11936" uniqueCount="421">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -12242,8 +12242,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12657,7 +12657,7 @@
         <v>141</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>147</v>
@@ -76632,8 +76632,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -77055,9 +77055,7 @@
       <c r="E15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
         <v>145</v>
       </c>

--- a/OrbisGame/Container/Data/Profiles.xlsx
+++ b/OrbisGame/Container/Data/Profiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasper\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FFA47-0227-4ED3-BF0D-CED5A90BEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E08FE5-CB88-44C5-944D-DABD51E6FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="29" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <sheet name="WaldelfKrieger" sheetId="126" r:id="rId96"/>
     <sheet name="WaldelfEliteKrieger" sheetId="127" r:id="rId97"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1626,93 +1626,93 @@
     </xf>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1935,9 +1935,9 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.64453125" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -2212,7 +2212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.7">
+    <row r="36" spans="1:2" ht="12.5">
       <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.7">
+    <row r="37" spans="1:2" ht="12.5">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.7">
+    <row r="38" spans="1:2" ht="12.5">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.7">
+    <row r="39" spans="1:2" ht="12.5">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.7">
+    <row r="40" spans="1:2" ht="12.5">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.7">
+    <row r="41" spans="1:2" ht="12.5">
       <c r="A41" s="3" t="s">
         <v>259</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.7">
+    <row r="42" spans="1:2" ht="12.5">
       <c r="A42" s="3" t="s">
         <v>261</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.7">
+    <row r="43" spans="1:2" ht="12.5">
       <c r="A43" s="3" t="s">
         <v>262</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.7">
+    <row r="44" spans="1:2" ht="12.5">
       <c r="A44" s="3" t="s">
         <v>278</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.7">
+    <row r="45" spans="1:2" ht="12.5">
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.7">
+    <row r="46" spans="1:2" ht="12.5">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -2446,9 +2446,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -3229,7 +3229,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -4056,7 +4056,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -4901,7 +4901,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -5726,7 +5726,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -6567,7 +6567,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -7388,7 +7388,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -8213,7 +8213,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -9051,12 +9051,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.64453125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -9279,7 +9279,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -9307,7 +9307,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="14.35">
+    <row r="30" spans="1:9" ht="14.5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9841,9 +9841,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.64453125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -10176,7 +10176,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -10584,7 +10584,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="14.35">
+    <row r="30" spans="1:9" ht="14.5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -10631,9 +10631,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="23.64453125" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -11466,12 +11466,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="6" max="7" width="15.3515625" customWidth="1"/>
+    <col min="6" max="7" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -12242,11 +12242,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
@@ -13076,7 +13076,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -13899,7 +13899,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -14739,7 +14739,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -15562,7 +15562,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -16387,7 +16387,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5"/>
@@ -17204,9 +17204,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="34.3515625" customWidth="1"/>
+    <col min="6" max="6" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -18030,7 +18030,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -18852,7 +18852,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -19671,7 +19671,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -20422,7 +20422,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -21241,11 +21241,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -22068,7 +22068,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -22893,7 +22893,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -23717,9 +23717,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -23802,7 +23802,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -23830,7 +23830,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -23858,7 +23858,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -23886,7 +23886,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -23914,7 +23914,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -23970,7 +23970,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -23998,7 +23998,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -24025,7 +24025,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -24052,7 +24052,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -24079,7 +24079,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -24187,7 +24187,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -24262,7 +24262,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -24288,7 +24288,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -24339,7 +24339,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -24365,7 +24365,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -24413,7 +24413,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -24431,7 +24431,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -24447,7 +24447,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -24462,7 +24462,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="14.35">
+    <row r="30" spans="1:9" ht="14.5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -24504,7 +24504,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -25329,7 +25329,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -26152,7 +26152,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -26997,7 +26997,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -27824,7 +27824,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -28646,12 +28646,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="6" max="6" width="21.64453125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -28707,7 +28707,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -28734,7 +28734,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -28762,7 +28762,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -28790,7 +28790,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -28818,7 +28818,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -28846,7 +28846,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -28874,7 +28874,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -28902,7 +28902,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -28957,7 +28957,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -28984,7 +28984,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -29011,7 +29011,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -29038,7 +29038,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -29065,7 +29065,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -29091,7 +29091,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -29117,7 +29117,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -29169,7 +29169,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -29194,7 +29194,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -29223,7 +29223,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -29250,7 +29250,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -29278,7 +29278,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -29306,7 +29306,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -29334,7 +29334,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -29358,7 +29358,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -29374,7 +29374,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -29390,7 +29390,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -29426,7 +29426,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -30252,7 +30252,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -31076,7 +31076,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -31899,7 +31899,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -32722,7 +32722,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -33545,7 +33545,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -34368,7 +34368,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -35191,7 +35191,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -36014,7 +36014,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -36837,7 +36837,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -37659,9 +37659,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -37690,7 +37690,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -37717,7 +37717,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -37744,7 +37744,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -37772,7 +37772,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -37800,7 +37800,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -37828,7 +37828,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -37856,7 +37856,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -37884,7 +37884,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -37912,7 +37912,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -37940,7 +37940,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -37967,7 +37967,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -37994,7 +37994,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -38021,7 +38021,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -38048,7 +38048,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -38075,7 +38075,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -38101,7 +38101,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -38127,7 +38127,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -38153,7 +38153,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -38179,7 +38179,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -38204,7 +38204,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -38233,7 +38233,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -38260,7 +38260,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -38288,7 +38288,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -38316,7 +38316,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -38344,7 +38344,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -38368,7 +38368,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -38384,7 +38384,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -38400,7 +38400,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -38436,7 +38436,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -39257,7 +39257,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -40082,7 +40082,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -40905,7 +40905,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -41722,9 +41722,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="17.3515625" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -42547,7 +42547,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -43360,7 +43360,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -44198,7 +44198,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -45035,7 +45035,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -45858,7 +45858,7 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -46682,9 +46682,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -46713,7 +46713,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -46740,7 +46740,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -46767,7 +46767,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -46795,7 +46795,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -46823,7 +46823,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -46851,7 +46851,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -46879,7 +46879,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -46907,7 +46907,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -46935,7 +46935,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -46963,7 +46963,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -46990,7 +46990,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -47017,7 +47017,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -47044,7 +47044,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -47071,7 +47071,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -47098,7 +47098,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -47124,7 +47124,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -47150,7 +47150,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -47176,7 +47176,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -47202,7 +47202,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -47227,7 +47227,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -47256,7 +47256,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -47283,7 +47283,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -47311,7 +47311,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -47339,7 +47339,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -47367,7 +47367,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -47391,7 +47391,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -47407,7 +47407,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -47423,7 +47423,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -47459,7 +47459,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -48284,7 +48284,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -49109,7 +49109,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -49834,7 +49834,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -50560,12 +50560,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="7" max="7" width="14.3515625" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -50594,7 +50594,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -50620,7 +50620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -50646,7 +50646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -50673,7 +50673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -50700,7 +50700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -50727,7 +50727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -50754,7 +50754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -50781,7 +50781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -50808,7 +50808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -50835,7 +50835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -50861,7 +50861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -50887,7 +50887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -50913,7 +50913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -50939,7 +50939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -50963,7 +50963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -50990,7 +50990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -51015,7 +51015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -51040,7 +51040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -51065,7 +51065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -51087,7 +51087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -51112,7 +51112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -51136,7 +51136,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -51161,7 +51161,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -51186,7 +51186,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -51211,7 +51211,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -51232,7 +51232,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -51247,7 +51247,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -51262,7 +51262,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -51297,7 +51297,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -52031,7 +52031,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -52769,7 +52769,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -53503,7 +53503,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -54237,7 +54237,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -54970,9 +54970,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -55001,7 +55001,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -55028,7 +55028,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -55055,7 +55055,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -55083,7 +55083,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -55111,7 +55111,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -55139,7 +55139,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -55167,7 +55167,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -55195,7 +55195,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -55223,7 +55223,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -55251,7 +55251,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -55278,7 +55278,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -55305,7 +55305,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -55332,7 +55332,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -55359,7 +55359,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -55386,7 +55386,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -55412,7 +55412,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -55440,7 +55440,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -55468,7 +55468,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -55496,7 +55496,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -55521,7 +55521,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -55550,7 +55550,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -55577,7 +55577,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -55605,7 +55605,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -55633,7 +55633,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -55661,7 +55661,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -55685,7 +55685,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -55701,7 +55701,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -55717,7 +55717,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -55753,7 +55753,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -56475,7 +56475,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -57297,14 +57297,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="8.64453125" style="15"/>
-    <col min="5" max="5" width="15.3515625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="4" width="8.6328125" style="15"/>
+    <col min="5" max="5" width="15.36328125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -57333,7 +57333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -57360,7 +57360,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -57387,7 +57387,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -57415,7 +57415,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -57443,7 +57443,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -57471,7 +57471,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -57499,7 +57499,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -57527,7 +57527,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -57555,7 +57555,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -57583,7 +57583,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -57610,7 +57610,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -57637,7 +57637,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -57664,7 +57664,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -57691,7 +57691,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -57718,7 +57718,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -57744,7 +57744,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -57770,7 +57770,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -57796,7 +57796,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -57822,7 +57822,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -57845,7 +57845,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -57870,7 +57870,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -57895,7 +57895,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -57921,7 +57921,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -57947,7 +57947,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -57973,7 +57973,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -57995,7 +57995,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -58012,7 +58012,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -58028,7 +58028,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -58061,15 +58061,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="5" width="8.64453125" style="15"/>
-    <col min="6" max="6" width="12.76171875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.64453125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="5" width="8.6328125" style="15"/>
+    <col min="6" max="6" width="12.7265625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -58098,7 +58098,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -58125,7 +58125,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -58152,7 +58152,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -58180,7 +58180,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -58208,7 +58208,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -58264,7 +58264,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -58292,7 +58292,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -58320,7 +58320,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -58348,7 +58348,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -58375,7 +58375,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -58402,7 +58402,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -58429,7 +58429,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -58456,7 +58456,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -58483,7 +58483,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -58511,7 +58511,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -58537,7 +58537,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -58563,7 +58563,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -58589,7 +58589,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -58612,7 +58612,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -58637,7 +58637,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -58662,7 +58662,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -58688,7 +58688,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -58714,7 +58714,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -58762,7 +58762,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -58779,7 +58779,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -58795,7 +58795,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -58828,12 +58828,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -58862,7 +58862,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -58889,7 +58889,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -58916,7 +58916,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -58944,7 +58944,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -58972,7 +58972,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -59000,7 +59000,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -59056,7 +59056,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -59084,7 +59084,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -59112,7 +59112,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -59139,7 +59139,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -59166,7 +59166,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -59193,7 +59193,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -59218,7 +59218,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -59243,7 +59243,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -59269,7 +59269,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -59295,7 +59295,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -59321,7 +59321,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -59347,7 +59347,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -59370,7 +59370,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -59421,7 +59421,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -59447,7 +59447,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -59473,7 +59473,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -59499,7 +59499,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -59521,7 +59521,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -59538,7 +59538,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -59554,7 +59554,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -59587,12 +59587,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -59621,7 +59621,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -59648,7 +59648,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -59675,7 +59675,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -59703,7 +59703,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -59731,7 +59731,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -59759,7 +59759,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -59787,7 +59787,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -59815,7 +59815,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -59843,7 +59843,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -59871,7 +59871,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -59898,7 +59898,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -59925,7 +59925,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -59952,7 +59952,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -59977,7 +59977,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -60002,7 +60002,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -60028,7 +60028,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -60054,7 +60054,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -60080,7 +60080,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -60106,7 +60106,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -60129,7 +60129,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -60155,7 +60155,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -60180,7 +60180,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -60206,7 +60206,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -60232,7 +60232,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -60258,7 +60258,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -60280,7 +60280,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -60297,7 +60297,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -60313,7 +60313,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -60346,12 +60346,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -60380,7 +60380,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -60407,7 +60407,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -60434,7 +60434,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -60462,7 +60462,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -60490,7 +60490,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -60518,7 +60518,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -60546,7 +60546,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -60574,7 +60574,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -60602,7 +60602,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -60630,7 +60630,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -60657,7 +60657,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -60711,7 +60711,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -60738,7 +60738,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -60765,7 +60765,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -60791,7 +60791,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -60819,7 +60819,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -60847,7 +60847,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -60875,7 +60875,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -60927,7 +60927,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -60954,7 +60954,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -60982,7 +60982,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -61038,7 +61038,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -61062,7 +61062,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -61079,7 +61079,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -61095,7 +61095,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -61128,12 +61128,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -61162,7 +61162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -61189,7 +61189,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -61216,7 +61216,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -61244,7 +61244,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -61272,7 +61272,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -61300,7 +61300,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -61328,7 +61328,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -61356,7 +61356,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -61384,7 +61384,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -61412,7 +61412,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -61439,7 +61439,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -61466,7 +61466,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -61493,7 +61493,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -61520,7 +61520,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -61547,7 +61547,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -61575,7 +61575,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -61603,7 +61603,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -61631,7 +61631,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -61659,7 +61659,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -61684,7 +61684,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -61711,7 +61711,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -61738,7 +61738,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -61766,7 +61766,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -61794,7 +61794,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -61822,7 +61822,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -61846,7 +61846,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -61863,7 +61863,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -61879,7 +61879,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -61912,12 +61912,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -61946,7 +61946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -61973,7 +61973,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -62000,7 +62000,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -62028,7 +62028,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -62056,7 +62056,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -62084,7 +62084,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -62112,7 +62112,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -62140,7 +62140,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -62168,7 +62168,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -62223,7 +62223,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -62250,7 +62250,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -62277,7 +62277,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -62304,7 +62304,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -62331,7 +62331,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -62359,7 +62359,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -62387,7 +62387,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -62415,7 +62415,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -62443,7 +62443,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -62468,7 +62468,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -62495,7 +62495,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -62522,7 +62522,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -62550,7 +62550,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -62578,7 +62578,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -62606,7 +62606,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -62630,7 +62630,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -62647,7 +62647,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -62663,7 +62663,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -62696,19 +62696,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.64453125" style="15"/>
-    <col min="2" max="2" width="17.3515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.64453125" style="15"/>
-    <col min="4" max="4" width="16.3515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1171875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.64453125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.64453125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="1" width="8.6328125" style="15"/>
+    <col min="2" max="2" width="17.36328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="15"/>
+    <col min="4" max="4" width="16.36328125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -62737,7 +62737,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -62764,7 +62764,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -62791,7 +62791,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -62819,7 +62819,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -62847,7 +62847,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -62875,7 +62875,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -62903,7 +62903,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -62931,7 +62931,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -62959,7 +62959,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -62987,7 +62987,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -63014,7 +63014,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -63041,7 +63041,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -63068,7 +63068,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -63095,7 +63095,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -63120,7 +63120,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -63148,7 +63148,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -63174,7 +63174,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -63200,7 +63200,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -63226,7 +63226,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -63249,7 +63249,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -63274,7 +63274,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -63299,7 +63299,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -63325,7 +63325,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -63351,7 +63351,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -63377,7 +63377,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -63399,7 +63399,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -63416,7 +63416,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -63432,7 +63432,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -63465,9 +63465,9 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -63496,7 +63496,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -63523,7 +63523,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -63550,7 +63550,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -63578,7 +63578,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -63606,7 +63606,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -63634,7 +63634,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -63662,7 +63662,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -63690,7 +63690,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -63718,7 +63718,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -63746,7 +63746,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -63773,7 +63773,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -63800,7 +63800,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -63827,7 +63827,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -63854,7 +63854,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -63881,7 +63881,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -63907,7 +63907,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -63935,7 +63935,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -63963,7 +63963,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -63991,7 +63991,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -64016,7 +64016,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -64045,7 +64045,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -64072,7 +64072,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -64100,7 +64100,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -64128,7 +64128,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -64156,7 +64156,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -64180,7 +64180,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -64196,7 +64196,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -64212,7 +64212,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -64245,12 +64245,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -64279,7 +64279,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -64306,7 +64306,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -64333,7 +64333,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -64361,7 +64361,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -64389,7 +64389,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -64417,7 +64417,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -64445,7 +64445,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -64473,7 +64473,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -64501,7 +64501,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -64529,7 +64529,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -64556,7 +64556,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -64583,7 +64583,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -64610,7 +64610,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -64637,7 +64637,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -64664,7 +64664,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -64692,7 +64692,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -64718,7 +64718,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -64744,7 +64744,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -64770,7 +64770,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -64793,7 +64793,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -64818,7 +64818,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -64843,7 +64843,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -64869,7 +64869,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -64895,7 +64895,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -64921,7 +64921,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -64943,7 +64943,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -64960,7 +64960,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -64976,7 +64976,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -65009,14 +65009,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="8.64453125" style="15"/>
-    <col min="5" max="5" width="16.3515625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="4" width="8.6328125" style="15"/>
+    <col min="5" max="5" width="16.36328125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -65045,7 +65045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -65072,7 +65072,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -65099,7 +65099,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -65127,7 +65127,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -65155,7 +65155,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -65183,7 +65183,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -65211,7 +65211,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -65239,7 +65239,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -65267,7 +65267,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -65295,7 +65295,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -65322,7 +65322,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -65349,7 +65349,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -65376,7 +65376,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -65403,7 +65403,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -65428,7 +65428,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -65454,7 +65454,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -65482,7 +65482,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -65510,7 +65510,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -65538,7 +65538,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -65565,7 +65565,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -65592,7 +65592,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -65619,7 +65619,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -65647,7 +65647,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -65675,7 +65675,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -65703,7 +65703,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -65727,7 +65727,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -65744,7 +65744,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -65760,7 +65760,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -65793,9 +65793,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.64453125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.35">
+    <row r="1" spans="1:8" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -65821,7 +65821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.35">
+    <row r="2" spans="1:8" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -65847,7 +65847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.35">
+    <row r="3" spans="1:8" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -65873,7 +65873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.35">
+    <row r="4" spans="1:8" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -65899,7 +65899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.35">
+    <row r="5" spans="1:8" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -65925,7 +65925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.35">
+    <row r="6" spans="1:8" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -65951,7 +65951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.35">
+    <row r="7" spans="1:8" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -65977,7 +65977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.35">
+    <row r="8" spans="1:8" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -66003,7 +66003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.35">
+    <row r="9" spans="1:8" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -66029,7 +66029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.35">
+    <row r="10" spans="1:8" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -66055,7 +66055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.35">
+    <row r="11" spans="1:8" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -66081,7 +66081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.35">
+    <row r="12" spans="1:8" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -66107,7 +66107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.35">
+    <row r="13" spans="1:8" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -66133,7 +66133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.35">
+    <row r="14" spans="1:8" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -66159,7 +66159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.35">
+    <row r="15" spans="1:8" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -66185,7 +66185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.35">
+    <row r="16" spans="1:8" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -66209,7 +66209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -66235,7 +66235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -66261,7 +66261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -66287,7 +66287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -66311,7 +66311,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -66337,7 +66337,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -66363,7 +66363,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -66389,7 +66389,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -66415,7 +66415,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -66441,7 +66441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -66463,7 +66463,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -66479,7 +66479,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -66493,7 +66493,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -66525,9 +66525,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -66556,7 +66556,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -66582,7 +66582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -66608,7 +66608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -66635,7 +66635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -66662,7 +66662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -66689,7 +66689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -66716,7 +66716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -66743,7 +66743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -66770,7 +66770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -66797,7 +66797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -66823,7 +66823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -66849,7 +66849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -66875,7 +66875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -66899,7 +66899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -66923,7 +66923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -66948,7 +66948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -66975,7 +66975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -67000,7 +67000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -67027,7 +67027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -67053,7 +67053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -67079,7 +67079,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -67105,7 +67105,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -67132,7 +67132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -67159,7 +67159,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -67186,7 +67186,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -67209,7 +67209,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -67224,7 +67224,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -67239,7 +67239,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -67271,9 +67271,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.35">
+    <row r="1" spans="1:8" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -67299,7 +67299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.35">
+    <row r="2" spans="1:8" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -67325,7 +67325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.35">
+    <row r="3" spans="1:8" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -67351,7 +67351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.35">
+    <row r="4" spans="1:8" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -67378,7 +67378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.35">
+    <row r="5" spans="1:8" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -67405,7 +67405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.35">
+    <row r="6" spans="1:8" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -67432,7 +67432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.35">
+    <row r="7" spans="1:8" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -67459,7 +67459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.35">
+    <row r="8" spans="1:8" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -67486,7 +67486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.35">
+    <row r="9" spans="1:8" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -67513,7 +67513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.35">
+    <row r="10" spans="1:8" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -67540,7 +67540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.35">
+    <row r="11" spans="1:8" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -67566,7 +67566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.35">
+    <row r="12" spans="1:8" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -67592,7 +67592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.35">
+    <row r="13" spans="1:8" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -67618,7 +67618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.35">
+    <row r="14" spans="1:8" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -67644,7 +67644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.35">
+    <row r="15" spans="1:8" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -67668,7 +67668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.35">
+    <row r="16" spans="1:8" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -67695,7 +67695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -67722,7 +67722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -67749,7 +67749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -67776,7 +67776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -67802,7 +67802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -67828,7 +67828,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -67854,7 +67854,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -67881,7 +67881,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -67908,7 +67908,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -67935,7 +67935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -67958,7 +67958,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -67975,7 +67975,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -67990,7 +67990,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -68022,9 +68022,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -68053,7 +68053,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -68079,7 +68079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -68105,7 +68105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -68132,7 +68132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -68159,7 +68159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -68186,7 +68186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -68213,7 +68213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -68240,7 +68240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -68267,7 +68267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -68294,7 +68294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -68320,7 +68320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -68346,7 +68346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -68372,7 +68372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -68398,7 +68398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -68424,7 +68424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -68449,7 +68449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -68476,7 +68476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -68503,7 +68503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -68530,7 +68530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -68554,7 +68554,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -68581,7 +68581,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -68607,7 +68607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -68634,7 +68634,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -68661,7 +68661,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -68688,7 +68688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -68711,7 +68711,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -68728,7 +68728,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -68743,7 +68743,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -68775,9 +68775,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -68806,7 +68806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -68833,7 +68833,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -68860,7 +68860,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -68888,7 +68888,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -68916,7 +68916,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -68944,7 +68944,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -68972,7 +68972,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -69000,7 +69000,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -69028,7 +69028,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -69056,7 +69056,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -69083,7 +69083,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -69110,7 +69110,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -69137,7 +69137,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -69164,7 +69164,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -69191,7 +69191,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -69217,7 +69217,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -69245,7 +69245,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -69273,7 +69273,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -69301,7 +69301,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -69326,7 +69326,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -69354,7 +69354,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -69381,7 +69381,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -69409,7 +69409,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -69437,7 +69437,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -69465,7 +69465,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -69489,7 +69489,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -69507,7 +69507,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -69523,7 +69523,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -69556,9 +69556,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -69587,7 +69587,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -69613,7 +69613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -69639,7 +69639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -69666,7 +69666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -69693,7 +69693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -69720,7 +69720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -69747,7 +69747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -69774,7 +69774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -69801,7 +69801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -69828,7 +69828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -69854,7 +69854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -69880,7 +69880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -69906,7 +69906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -69930,7 +69930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -69954,7 +69954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -69979,7 +69979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -70006,7 +70006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -70033,7 +70033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -70060,7 +70060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -70084,7 +70084,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -70110,7 +70110,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -70136,7 +70136,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -70163,7 +70163,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -70190,7 +70190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -70217,7 +70217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -70240,7 +70240,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -70255,7 +70255,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -70270,7 +70270,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -70302,9 +70302,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -70333,7 +70333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -70360,7 +70360,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -70387,7 +70387,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -70415,7 +70415,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -70443,7 +70443,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -70471,7 +70471,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -70499,7 +70499,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -70527,7 +70527,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -70555,7 +70555,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -70583,7 +70583,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -70610,7 +70610,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -70637,7 +70637,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -70664,7 +70664,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -70691,7 +70691,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -70718,7 +70718,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -70746,7 +70746,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -70774,7 +70774,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -70802,7 +70802,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -70830,7 +70830,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -70855,7 +70855,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -70883,7 +70883,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -70910,7 +70910,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -70938,7 +70938,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -70966,7 +70966,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -70994,7 +70994,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -71018,7 +71018,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -71036,7 +71036,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -71052,7 +71052,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -71085,9 +71085,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.76171875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -71116,7 +71116,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -71142,7 +71142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -71168,7 +71168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -71195,7 +71195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -71222,7 +71222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -71249,7 +71249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -71276,7 +71276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -71303,7 +71303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -71330,7 +71330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -71357,7 +71357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -71383,7 +71383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -71409,7 +71409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -71435,7 +71435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -71459,7 +71459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -71483,7 +71483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -71508,7 +71508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.35">
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -71535,7 +71535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.35">
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -71562,7 +71562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.35">
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -71589,7 +71589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.35">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -71615,7 +71615,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.35">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -71641,7 +71641,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.35">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -71667,7 +71667,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.35">
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -71694,7 +71694,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.35">
+    <row r="24" spans="1:8" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -71721,7 +71721,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.35">
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -71748,7 +71748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.35">
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -71771,7 +71771,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="14.35">
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -71786,7 +71786,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="14.35">
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -71801,7 +71801,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="14.35">
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -71833,9 +71833,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -71864,7 +71864,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -71891,7 +71891,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -71918,7 +71918,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -71946,7 +71946,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>101</v>
       </c>
@@ -71974,7 +71974,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -72002,7 +72002,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
@@ -72030,7 +72030,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -72058,7 +72058,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -72086,7 +72086,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -72114,7 +72114,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="8" t="s">
         <v>125</v>
       </c>
@@ -72141,7 +72141,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="8" t="s">
         <v>129</v>
       </c>
@@ -72168,7 +72168,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="8" t="s">
         <v>132</v>
       </c>
@@ -72195,7 +72195,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -72222,7 +72222,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
@@ -72249,7 +72249,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -72277,7 +72277,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -72303,7 +72303,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -72329,7 +72329,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
@@ -72355,7 +72355,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="8" t="s">
         <v>162</v>
       </c>
@@ -72378,7 +72378,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="8" t="s">
         <v>168</v>
       </c>
@@ -72404,7 +72404,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -72429,7 +72429,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="8" t="s">
         <v>176</v>
       </c>
@@ -72455,7 +72455,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
@@ -72481,7 +72481,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
@@ -72507,7 +72507,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -72529,7 +72529,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="8" t="s">
         <v>190</v>
       </c>
@@ -72545,7 +72545,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="8" t="s">
         <v>193</v>
       </c>
@@ -72561,7 +72561,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="8" t="s">
         <v>194</v>
       </c>
@@ -72594,12 +72594,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.64453125" style="15"/>
+    <col min="1" max="16384" width="8.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.35">
+    <row r="1" spans="1:9" ht="14.5">
       <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
@@ -72628,7 +72628,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -72655,7 +72655,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
@@ -72682,7 +72682,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="14.35">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -72710,7 +72710,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.35">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
@@ -72738,7 +72738,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="14.35">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="13" t="s">
         <v>105</v>
       </c>
@@ -72766,7 +72766,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="14.35">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="13" t="s">
         <v>109</v>
       </c>
@@ -72794,7 +72794,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="14.35">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -72822,7 +72822,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="14.35">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -72850,7 +72850,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="14.35">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -72878,7 +72878,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="13" t="s">
         <v>125</v>
       </c>
@@ -72905,7 +72905,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="14.35">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -72932,7 +72932,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.35">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
@@ -72959,7 +72959,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="14.35">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
@@ -72986,7 +72986,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="14.35">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="13" t="s">
         <v>141</v>
       </c>
@@ -73013,7 +73013,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="14.35">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -73041,7 +73041,7 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="14.35">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -73067,7 +73067,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.35">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="13" t="s">
         <v>154</v>
       </c>
@@ -73093,7 +73093,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.35">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -73119,7 +73119,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="14.35">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="13" t="s">
         <v>162</v>
       </c>
@@ -73142,7 +73142,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.35">
+    <row r="21" spans="1:9" ht="14.5">
       <c r="A21" s="13" t="s">
         <v>168</v>
       </c>
@@ -73167,7 +73167,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14.35">
+    <row r="22" spans="1:9" ht="14.5">
       <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
@@ -73192,7 +73192,7 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="14.35">
+    <row r="23" spans="1:9" ht="14.5">
       <c r="A23" s="13" t="s">
         <v>176</v>
       </c>
@@ -73218,7 +73218,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="14.35">
+    <row r="24" spans="1:9" ht="14.5">
       <c r="A24" s="13" t="s">
         <v>180</v>
       </c>
@@ -73244,7 +73244,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.35">
+    <row r="25" spans="1:9" ht="14.5">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -73270,7 +73270,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="14.35">
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="13" t="s">
         <v>187</v>
       </c>
@@ -73292,7 +73292,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="14.35">
+    <row r="27" spans="1:9" ht="14.5">
       <c r="A27" s="13" t="s">
         <v>190</v>
       </c>
@@ -73309,7 +73309,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14.35">
+    <row r="28" spans="1:9" ht="14.5">
       <c r="A28" s="13" t="s">
         <v>193</v>
       </c>
@@ -73325,7 +73325,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="14.35">
+    <row r="29" spans="1:9" ht="14.5">
       <c r="A29" s="13" t="s">
         <v>194</v>
       </c>
@@ -73361,7 +73361,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -74207,7 +74207,7 @@
       <selection activeCell="F17" sqref="F17:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -75035,7 +75035,7 @@
       <selection activeCell="C12" sqref="C12:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -75881,7 +75881,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -76636,7 +76636,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -77456,7 +77456,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
@@ -78278,7 +78278,7 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
